--- a/Base/Teams/Giants/Distributions.xlsx
+++ b/Base/Teams/Giants/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.656375060613821, 0.4058267592562845, 1.6552448096179955, 2.985866487863884)</t>
-  </si>
-  <si>
-    <t>JSU(-1.3250787404996278, 1.3897074459968208, 1.7412548733541011, 6.329007281073124)</t>
-  </si>
-  <si>
-    <t>NIG(0.9864844860308054, 0.7162338388244353, 1.6594575296801524, 2.9020328947660916)</t>
-  </si>
-  <si>
-    <t>NIG(1.658585085924116, 1.2321767643646298, 3.4639850724386436, 5.9753555770798545)</t>
+    <t>NIG(0.7222044307299725, 0.4737940993224269, 1.438000664540498, 3.058035597739332)</t>
+  </si>
+  <si>
+    <t>JSU(-1.2327934495956392, 1.4316023314512387, 1.9726011866188928, 6.916957536762931)</t>
+  </si>
+  <si>
+    <t>NIG(0.9232211583265119, 0.6749433853365115, 1.6768657734140184, 2.712771356539606)</t>
+  </si>
+  <si>
+    <t>NIG(1.7110035190297417, 1.2687056714422946, 3.338197060092456, 5.938165140844333)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Giants/Distributions.xlsx
+++ b/Base/Teams/Giants/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.7222044307299725, 0.4737940993224269, 1.438000664540498, 3.058035597739332)</t>
-  </si>
-  <si>
-    <t>JSU(-1.2327934495956392, 1.4316023314512387, 1.9726011866188928, 6.916957536762931)</t>
-  </si>
-  <si>
-    <t>NIG(0.9232211583265119, 0.6749433853365115, 1.6768657734140184, 2.712771356539606)</t>
-  </si>
-  <si>
-    <t>NIG(1.7110035190297417, 1.2687056714422946, 3.338197060092456, 5.938165140844333)</t>
+    <t>NIG(0.9220969785113576, 0.5763078753274383, 1.421419631572951, 3.465216388719809)</t>
+  </si>
+  <si>
+    <t>JSU(-1.2363144543294735, 1.3849304519231738, 1.8947561095990895, 6.588223694572884)</t>
+  </si>
+  <si>
+    <t>NIG(1.028932030541391, 0.7633964303387992, 1.5163135433156785, 2.7553621122380583)</t>
+  </si>
+  <si>
+    <t>JSU(-1.257614330154591, 1.2963921600481483, 2.323139274040787, 5.093724143633565)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Giants/Distributions.xlsx
+++ b/Base/Teams/Giants/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.9220969785113576, 0.5763078753274383, 1.421419631572951, 3.465216388719809)</t>
-  </si>
-  <si>
-    <t>JSU(-1.2363144543294735, 1.3849304519231738, 1.8947561095990895, 6.588223694572884)</t>
-  </si>
-  <si>
-    <t>NIG(1.028932030541391, 0.7633964303387992, 1.5163135433156785, 2.7553621122380583)</t>
-  </si>
-  <si>
-    <t>JSU(-1.257614330154591, 1.2963921600481483, 2.323139274040787, 5.093724143633565)</t>
+    <t>NCT(3.183704130471093, 1.2900649183342572, -0.6165548476638768, 2.7092407440008532)</t>
+  </si>
+  <si>
+    <t>JSU(-1.139140556908957, 1.3370100105927953, 2.2712651298560016, 6.21272018005257)</t>
+  </si>
+  <si>
+    <t>NIG(1.1945622898889112, 0.8944496438560696, 1.318273739875969, 2.8652721854191125)</t>
+  </si>
+  <si>
+    <t>EXN(2.609647298519424, 2.453118541723909, 2.869044642637271)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Giants/Distributions.xlsx
+++ b/Base/Teams/Giants/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(3.183704130471093, 1.2900649183342572, -0.6165548476638768, 2.7092407440008532)</t>
-  </si>
-  <si>
-    <t>JSU(-1.139140556908957, 1.3370100105927953, 2.2712651298560016, 6.21272018005257)</t>
-  </si>
-  <si>
-    <t>NIG(1.1945622898889112, 0.8944496438560696, 1.318273739875969, 2.8652721854191125)</t>
-  </si>
-  <si>
-    <t>EXN(2.609647298519424, 2.453118541723909, 2.869044642637271)</t>
+    <t>NCT(3.412677956402386, 1.3039830253046445, -0.6149790605244961, 2.738723303561531)</t>
+  </si>
+  <si>
+    <t>JSU(-1.1034251727004434, 1.3400288549540393, 2.384430476837232, 6.346604452336397)</t>
+  </si>
+  <si>
+    <t>NIG(1.2428863660165714, 0.9246837817812611, 1.2759474653387115, 2.8946451793456554)</t>
+  </si>
+  <si>
+    <t>EXN(2.594712854689148, 2.5271088605615626, 2.85701988886492)</t>
   </si>
 </sst>
 </file>
